--- a/info_df.xlsx
+++ b/info_df.xlsx
@@ -37,604 +37,604 @@
     <t>update_time</t>
   </si>
   <si>
-    <t>Avatar KIKO2 # 1</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 2</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 3</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 4</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 5</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 6</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 7</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 8</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 9</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 10</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 11</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 12</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 13</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 14</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 15</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 16</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 17</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 18</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 19</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 20</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 21</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 22</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 23</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 24</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 25</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 26</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 27</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 28</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 29</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 30</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 31</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 32</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 33</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 34</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 35</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 36</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 37</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 38</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 39</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 40</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 41</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 42</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 43</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 44</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 45</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 46</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 47</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 48</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 49</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 50</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 51</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 52</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 53</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 54</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 55</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 56</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 57</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 58</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 59</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 60</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 61</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 62</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 63</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 64</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 65</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 66</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 67</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 68</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 69</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 70</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 71</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 72</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 73</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 74</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 75</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 76</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 77</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 78</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 79</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 80</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 81</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 82</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 83</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 84</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 85</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 86</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 87</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 88</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 89</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 90</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 91</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 92</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 93</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 94</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 95</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 96</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 97</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 98</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 99</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 100</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 101</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 102</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 103</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 104</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 105</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 106</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 107</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 108</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 109</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 110</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 111</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 112</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 113</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 114</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 115</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 116</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 117</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 118</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 119</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 120</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 121</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 122</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 123</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 124</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 125</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 126</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 127</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 128</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 129</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 130</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 131</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 132</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 133</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 134</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 135</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 136</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 137</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 138</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 139</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 140</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 141</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 142</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 143</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 144</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 145</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 146</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 147</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 148</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 149</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 150</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 151</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 152</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 153</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 154</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 155</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 156</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 157</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 158</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 159</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 160</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 161</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 162</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 163</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 164</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 165</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 166</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 167</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 168</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 169</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 170</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 171</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 172</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 173</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 174</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 175</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 176</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 177</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 178</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 179</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 180</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 181</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 182</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 183</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 184</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 185</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 186</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 187</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 188</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 189</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 190</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 191</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 192</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 193</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 194</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 195</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 196</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 197</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 198</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 199</t>
-  </si>
-  <si>
-    <t>Avatar KIKO2 # 200</t>
+    <t>Avatar KIKO SE1 # 1</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 2</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 3</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 4</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 5</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 6</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 7</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 8</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 9</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 10</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 11</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 12</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 13</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 14</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 15</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 16</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 17</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 18</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 19</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 20</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 21</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 22</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 23</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 24</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 25</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 26</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 27</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 28</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 29</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 30</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 31</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 32</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 33</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 34</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 35</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 36</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 37</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 38</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 39</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 40</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 41</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 42</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 43</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 44</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 45</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 46</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 47</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 48</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 49</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 50</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 51</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 52</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 53</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 54</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 55</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 56</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 57</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 58</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 59</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 60</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 61</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 62</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 63</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 64</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 65</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 66</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 67</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 68</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 69</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 70</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 71</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 72</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 73</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 74</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 75</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 76</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 77</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 78</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 79</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 80</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 81</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 82</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 83</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 84</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 85</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 86</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 87</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 88</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 89</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 90</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 91</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 92</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 93</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 94</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 95</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 96</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 97</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 98</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 99</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 100</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 101</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 102</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 103</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 104</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 105</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 106</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 107</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 108</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 109</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 110</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 111</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 112</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 113</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 114</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 115</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 116</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 117</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 118</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 119</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 120</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 121</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 122</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 123</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 124</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 125</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 126</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 127</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 128</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 129</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 130</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 131</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 132</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 133</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 134</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 135</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 136</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 137</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 138</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 139</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 140</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 141</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 142</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 143</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 144</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 145</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 146</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 147</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 148</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 149</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 150</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 151</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 152</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 153</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 154</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 155</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 156</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 157</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 158</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 159</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 160</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 161</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 162</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 163</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 164</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 165</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 166</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 167</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 168</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 169</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 170</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 171</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 172</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 173</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 174</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 175</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 176</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 177</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 178</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 179</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 180</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 181</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 182</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 183</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 184</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 185</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 186</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 187</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 188</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 189</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 190</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 191</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 192</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 193</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 194</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 195</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 196</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 197</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 198</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 199</t>
+  </si>
+  <si>
+    <t>Avatar KIKO SE1 # 200</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1646384474922</v>
+        <v>1646978978425</v>
       </c>
       <c r="B2">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D2">
         <v>111</v>
@@ -1038,15 +1038,15 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1646384474922</v>
+        <v>1646978978425</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1646384475354</v>
+        <v>1646978978831</v>
       </c>
       <c r="B3">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D3">
         <v>111</v>
@@ -1058,15 +1058,15 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1646384475354</v>
+        <v>1646978978831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1646384477382</v>
+        <v>1646978980736</v>
       </c>
       <c r="B4">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D4">
         <v>111</v>
@@ -1078,15 +1078,15 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1646384477382</v>
+        <v>1646978980736</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1646384477851</v>
+        <v>1646978982824</v>
       </c>
       <c r="B5">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D5">
         <v>111</v>
@@ -1098,15 +1098,15 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1646384477851</v>
+        <v>1646978982824</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1646384480129</v>
+        <v>1646978983320</v>
       </c>
       <c r="B6">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D6">
         <v>111</v>
@@ -1118,15 +1118,15 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1646384480129</v>
+        <v>1646978983320</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1646384480714</v>
+        <v>1646978983721</v>
       </c>
       <c r="B7">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D7">
         <v>111</v>
@@ -1138,15 +1138,15 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1646384480714</v>
+        <v>1646978983721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>1646384481438</v>
+        <v>1646978984222</v>
       </c>
       <c r="B8">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D8">
         <v>111</v>
@@ -1158,15 +1158,15 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1646384481438</v>
+        <v>1646978984222</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>1646384483525</v>
+        <v>1646978984605</v>
       </c>
       <c r="B9">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D9">
         <v>111</v>
@@ -1178,15 +1178,15 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1646384483525</v>
+        <v>1646978984605</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>1646384484035</v>
+        <v>1646978985166</v>
       </c>
       <c r="B10">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D10">
         <v>111</v>
@@ -1198,15 +1198,15 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1646384484035</v>
+        <v>1646978985166</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>1646384484732</v>
+        <v>1646978985613</v>
       </c>
       <c r="B11">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D11">
         <v>111</v>
@@ -1218,15 +1218,15 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1646384484732</v>
+        <v>1646978985614</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>1646384485163</v>
+        <v>1646978986048</v>
       </c>
       <c r="B12">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -1238,15 +1238,15 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1646384485163</v>
+        <v>1646978986048</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>1646384485574</v>
+        <v>1646978986568</v>
       </c>
       <c r="B13">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D13">
         <v>111</v>
@@ -1258,15 +1258,15 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1646384485574</v>
+        <v>1646978986568</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>1646384486512</v>
+        <v>1646978988592</v>
       </c>
       <c r="B14">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D14">
         <v>111</v>
@@ -1278,15 +1278,15 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1646384486512</v>
+        <v>1646978988592</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>1646384487013</v>
+        <v>1646978990673</v>
       </c>
       <c r="B15">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D15">
         <v>111</v>
@@ -1298,15 +1298,15 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1646384487013</v>
+        <v>1646978990673</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>1646384487718</v>
+        <v>1646978992582</v>
       </c>
       <c r="B16">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D16">
         <v>111</v>
@@ -1318,15 +1318,15 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1646384487718</v>
+        <v>1646978992582</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>1646384488254</v>
+        <v>1646978993241</v>
       </c>
       <c r="B17">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D17">
         <v>111</v>
@@ -1338,15 +1338,15 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1646384488254</v>
+        <v>1646978993241</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>1646384489008</v>
+        <v>1646978993617</v>
       </c>
       <c r="B18">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D18">
         <v>111</v>
@@ -1358,15 +1358,15 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1646384489008</v>
+        <v>1646978993617</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>1646384489387</v>
+        <v>1646978994005</v>
       </c>
       <c r="B19">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D19">
         <v>111</v>
@@ -1378,15 +1378,15 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1646384489387</v>
+        <v>1646978994005</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>1646384489773</v>
+        <v>1646978995842</v>
       </c>
       <c r="B20">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D20">
         <v>111</v>
@@ -1398,15 +1398,15 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1646384489773</v>
+        <v>1646978995842</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>1646384490202</v>
+        <v>1646978996234</v>
       </c>
       <c r="B21">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D21">
         <v>111</v>
@@ -1418,15 +1418,15 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1646384490202</v>
+        <v>1646978996234</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>1646384490630</v>
+        <v>1646978996673</v>
       </c>
       <c r="B22">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D22">
         <v>111</v>
@@ -1438,15 +1438,15 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1646384490630</v>
+        <v>1646978996673</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>1646384491065</v>
+        <v>1646978997063</v>
       </c>
       <c r="B23">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D23">
         <v>111</v>
@@ -1458,15 +1458,15 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1646384491065</v>
+        <v>1646978997063</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>1646384491511</v>
+        <v>1646978997452</v>
       </c>
       <c r="B24">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D24">
         <v>111</v>
@@ -1478,15 +1478,15 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1646384491511</v>
+        <v>1646978997452</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>1646384491948</v>
+        <v>1646978997861</v>
       </c>
       <c r="B25">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D25">
         <v>111</v>
@@ -1498,15 +1498,15 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1646384491948</v>
+        <v>1646978997861</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>1646384492379</v>
+        <v>1646978999830</v>
       </c>
       <c r="B26">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D26">
         <v>111</v>
@@ -1518,15 +1518,15 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1646384492379</v>
+        <v>1646978999830</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>1646384494498</v>
+        <v>1646979000272</v>
       </c>
       <c r="B27">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D27">
         <v>111</v>
@@ -1538,15 +1538,15 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1646384494498</v>
+        <v>1646979000272</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>1646384494911</v>
+        <v>1646979000619</v>
       </c>
       <c r="B28">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D28">
         <v>111</v>
@@ -1558,15 +1558,15 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1646384494911</v>
+        <v>1646979000619</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>1646384495371</v>
+        <v>1646979002550</v>
       </c>
       <c r="B29">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D29">
         <v>111</v>
@@ -1578,15 +1578,15 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1646384495371</v>
+        <v>1646979002550</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>1646384495761</v>
+        <v>1646979004421</v>
       </c>
       <c r="B30">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D30">
         <v>111</v>
@@ -1598,15 +1598,15 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1646384495761</v>
+        <v>1646979004421</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>1646384496169</v>
+        <v>1646979004866</v>
       </c>
       <c r="B31">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D31">
         <v>111</v>
@@ -1618,15 +1618,15 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1646384496169</v>
+        <v>1646979004866</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>1646384496543</v>
+        <v>1646979005236</v>
       </c>
       <c r="B32">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D32">
         <v>111</v>
@@ -1638,15 +1638,15 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1646384496543</v>
+        <v>1646979005236</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>1646384498638</v>
+        <v>1646979005938</v>
       </c>
       <c r="B33">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D33">
         <v>111</v>
@@ -1658,15 +1658,15 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1646384498638</v>
+        <v>1646979005938</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>1646384499039</v>
+        <v>1646979006354</v>
       </c>
       <c r="B34">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D34">
         <v>111</v>
@@ -1678,15 +1678,15 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1646384499039</v>
+        <v>1646979006354</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>1646384501062</v>
+        <v>1646979007105</v>
       </c>
       <c r="B35">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D35">
         <v>111</v>
@@ -1698,15 +1698,15 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1646384501062</v>
+        <v>1646979007105</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>1646384501461</v>
+        <v>1646979007453</v>
       </c>
       <c r="B36">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D36">
         <v>111</v>
@@ -1718,15 +1718,15 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1646384501461</v>
+        <v>1646979007453</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>1646384502050</v>
+        <v>1646979009389</v>
       </c>
       <c r="B37">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D37">
         <v>111</v>
@@ -1738,15 +1738,15 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1646384502050</v>
+        <v>1646979009389</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>1646384504092</v>
+        <v>1646979009871</v>
       </c>
       <c r="B38">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D38">
         <v>111</v>
@@ -1758,15 +1758,15 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1646384504092</v>
+        <v>1646979009871</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>1646384506096</v>
+        <v>1646979010531</v>
       </c>
       <c r="B39">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D39">
         <v>111</v>
@@ -1778,15 +1778,15 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1646384506096</v>
+        <v>1646979010531</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>1646384506563</v>
+        <v>1646979011209</v>
       </c>
       <c r="B40">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D40">
         <v>111</v>
@@ -1798,15 +1798,15 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1646384506563</v>
+        <v>1646979011209</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>1646384508647</v>
+        <v>1646979011885</v>
       </c>
       <c r="B41">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D41">
         <v>111</v>
@@ -1818,15 +1818,15 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1646384508647</v>
+        <v>1646979011885</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>1646384510775</v>
+        <v>1646979013763</v>
       </c>
       <c r="B42">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D42">
         <v>111</v>
@@ -1838,15 +1838,15 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1646384510775</v>
+        <v>1646979013763</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>1646384511388</v>
+        <v>1646979014155</v>
       </c>
       <c r="B43">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D43">
         <v>111</v>
@@ -1858,15 +1858,15 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1646384511388</v>
+        <v>1646979014155</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>1646384511793</v>
+        <v>1646979016005</v>
       </c>
       <c r="B44">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D44">
         <v>111</v>
@@ -1878,15 +1878,15 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1646384511793</v>
+        <v>1646979016005</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>1646384512301</v>
+        <v>1646979016422</v>
       </c>
       <c r="B45">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D45">
         <v>111</v>
@@ -1898,15 +1898,15 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1646384512301</v>
+        <v>1646979016422</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>1646384512794</v>
+        <v>1646979018214</v>
       </c>
       <c r="B46">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D46">
         <v>111</v>
@@ -1918,15 +1918,15 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1646384512794</v>
+        <v>1646979018214</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>1646384513315</v>
+        <v>1646979018613</v>
       </c>
       <c r="B47">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D47">
         <v>111</v>
@@ -1938,15 +1938,15 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1646384513315</v>
+        <v>1646979018613</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>1646384513691</v>
+        <v>1646979019284</v>
       </c>
       <c r="B48">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D48">
         <v>111</v>
@@ -1958,15 +1958,15 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1646384513691</v>
+        <v>1646979019284</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>1646384514480</v>
+        <v>1646979019706</v>
       </c>
       <c r="B49">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D49">
         <v>111</v>
@@ -1978,15 +1978,15 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1646384514480</v>
+        <v>1646979019706</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>1646384514912</v>
+        <v>1646979020095</v>
       </c>
       <c r="B50">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D50">
         <v>111</v>
@@ -1998,15 +1998,15 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1646384514912</v>
+        <v>1646979020095</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>1646384515296</v>
+        <v>1646979020564</v>
       </c>
       <c r="B51">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D51">
         <v>111</v>
@@ -2018,15 +2018,15 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1646384515296</v>
+        <v>1646979020564</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>1646384517254</v>
+        <v>1646979021288</v>
       </c>
       <c r="B52">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D52">
         <v>111</v>
@@ -2038,15 +2038,15 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1646384517254</v>
+        <v>1646979021288</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>1646384518015</v>
+        <v>1646979021638</v>
       </c>
       <c r="B53">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D53">
         <v>111</v>
@@ -2058,15 +2058,15 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1646384518015</v>
+        <v>1646979021638</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>1646384518422</v>
+        <v>1646979022078</v>
       </c>
       <c r="B54">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D54">
         <v>111</v>
@@ -2078,15 +2078,15 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1646384518422</v>
+        <v>1646979022078</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>1646384518787</v>
+        <v>1646979022412</v>
       </c>
       <c r="B55">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D55">
         <v>111</v>
@@ -2098,15 +2098,15 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1646384518787</v>
+        <v>1646979022412</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>1646384519211</v>
+        <v>1646979024215</v>
       </c>
       <c r="B56">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D56">
         <v>111</v>
@@ -2118,15 +2118,15 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1646384519211</v>
+        <v>1646979024215</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>1646384519650</v>
+        <v>1646979024568</v>
       </c>
       <c r="B57">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D57">
         <v>111</v>
@@ -2138,15 +2138,15 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1646384519650</v>
+        <v>1646979024568</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>1646384520033</v>
+        <v>1646979025248</v>
       </c>
       <c r="B58">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D58">
         <v>111</v>
@@ -2158,15 +2158,15 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1646384520033</v>
+        <v>1646979025248</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>1646384520514</v>
+        <v>1646979025883</v>
       </c>
       <c r="B59">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D59">
         <v>111</v>
@@ -2178,15 +2178,15 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1646384520514</v>
+        <v>1646979025883</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>1646384520940</v>
+        <v>1646979026464</v>
       </c>
       <c r="B60">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D60">
         <v>111</v>
@@ -2198,15 +2198,15 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1646384520940</v>
+        <v>1646979026464</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>1646384521391</v>
+        <v>1646979027140</v>
       </c>
       <c r="B61">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D61">
         <v>111</v>
@@ -2218,15 +2218,15 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1646384521391</v>
+        <v>1646979027140</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>1646384522152</v>
+        <v>1646979029007</v>
       </c>
       <c r="B62">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D62">
         <v>111</v>
@@ -2238,15 +2238,15 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1646384522152</v>
+        <v>1646979029007</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>1646384524150</v>
+        <v>1646979029615</v>
       </c>
       <c r="B63">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D63">
         <v>111</v>
@@ -2258,15 +2258,15 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1646384524150</v>
+        <v>1646979029615</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>1646384524471</v>
+        <v>1646979030322</v>
       </c>
       <c r="B64">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D64">
         <v>111</v>
@@ -2278,15 +2278,15 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1646384524471</v>
+        <v>1646979030322</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>1646384524941</v>
+        <v>1646979030725</v>
       </c>
       <c r="B65">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D65">
         <v>111</v>
@@ -2298,15 +2298,15 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1646384524941</v>
+        <v>1646979030725</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>1646384525300</v>
+        <v>1646979032579</v>
       </c>
       <c r="B66">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D66">
         <v>111</v>
@@ -2318,15 +2318,15 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1646384525300</v>
+        <v>1646979032579</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>1646384525961</v>
+        <v>1646979034365</v>
       </c>
       <c r="B67">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D67">
         <v>111</v>
@@ -2338,15 +2338,15 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1646384525961</v>
+        <v>1646979034365</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>1646384526865</v>
+        <v>1646979034980</v>
       </c>
       <c r="B68">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D68">
         <v>111</v>
@@ -2358,15 +2358,15 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1646384526865</v>
+        <v>1646979034980</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>1646384527570</v>
+        <v>1646979035636</v>
       </c>
       <c r="B69">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D69">
         <v>111</v>
@@ -2378,15 +2378,15 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1646384527570</v>
+        <v>1646979035636</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>1646384528599</v>
+        <v>1646979036318</v>
       </c>
       <c r="B70">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D70">
         <v>111</v>
@@ -2398,15 +2398,15 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1646384528599</v>
+        <v>1646979036318</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>1646384530592</v>
+        <v>1646979036998</v>
       </c>
       <c r="B71">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D71">
         <v>111</v>
@@ -2418,15 +2418,15 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1646384530592</v>
+        <v>1646979036998</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>1646384532657</v>
+        <v>1646979037487</v>
       </c>
       <c r="B72">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D72">
         <v>111</v>
@@ -2438,15 +2438,15 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1646384532657</v>
+        <v>1646979037487</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>1646384533098</v>
+        <v>1646979037846</v>
       </c>
       <c r="B73">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D73">
         <v>111</v>
@@ -2458,15 +2458,15 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1646384533098</v>
+        <v>1646979037846</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>1646384533763</v>
+        <v>1646979038160</v>
       </c>
       <c r="B74">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D74">
         <v>111</v>
@@ -2478,15 +2478,15 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1646384533763</v>
+        <v>1646979038160</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>1646384534271</v>
+        <v>1646979038532</v>
       </c>
       <c r="B75">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D75">
         <v>111</v>
@@ -2498,15 +2498,15 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1646384534271</v>
+        <v>1646979038532</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>1646384534696</v>
+        <v>1646979039319</v>
       </c>
       <c r="B76">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D76">
         <v>111</v>
@@ -2518,15 +2518,15 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1646384534696</v>
+        <v>1646979039319</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>1646384535463</v>
+        <v>1646979039964</v>
       </c>
       <c r="B77">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D77">
         <v>111</v>
@@ -2538,15 +2538,15 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1646384535463</v>
+        <v>1646979039964</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>1646384537521</v>
+        <v>1646979041798</v>
       </c>
       <c r="B78">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D78">
         <v>111</v>
@@ -2558,15 +2558,15 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1646384537521</v>
+        <v>1646979041798</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>1646384539551</v>
+        <v>1646979042461</v>
       </c>
       <c r="B79">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D79">
         <v>111</v>
@@ -2578,15 +2578,15 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1646384539551</v>
+        <v>1646979042461</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>1646384541568</v>
+        <v>1646979043608</v>
       </c>
       <c r="B80">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D80">
         <v>111</v>
@@ -2598,15 +2598,15 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1646384541568</v>
+        <v>1646979043608</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>1646384542072</v>
+        <v>1646979043992</v>
       </c>
       <c r="B81">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D81">
         <v>111</v>
@@ -2618,15 +2618,15 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1646384542072</v>
+        <v>1646979043992</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>1646384544077</v>
+        <v>1646979044348</v>
       </c>
       <c r="B82">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D82">
         <v>111</v>
@@ -2638,15 +2638,15 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1646384544077</v>
+        <v>1646979044348</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>1646384544620</v>
+        <v>1646979044802</v>
       </c>
       <c r="B83">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D83">
         <v>111</v>
@@ -2658,15 +2658,15 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1646384544620</v>
+        <v>1646979044802</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>1646384545020</v>
+        <v>1646979045252</v>
       </c>
       <c r="B84">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D84">
         <v>111</v>
@@ -2678,15 +2678,15 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>1646384545020</v>
+        <v>1646979045252</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>1646384545764</v>
+        <v>1646979045674</v>
       </c>
       <c r="B85">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D85">
         <v>111</v>
@@ -2698,15 +2698,15 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>1646384545764</v>
+        <v>1646979045674</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>1646384546239</v>
+        <v>1646979046025</v>
       </c>
       <c r="B86">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D86">
         <v>111</v>
@@ -2718,15 +2718,15 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1646384546239</v>
+        <v>1646979046025</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>1646384548296</v>
+        <v>1646979046457</v>
       </c>
       <c r="B87">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D87">
         <v>111</v>
@@ -2738,15 +2738,15 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1646384548296</v>
+        <v>1646979046457</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>1646384548855</v>
+        <v>1646979046848</v>
       </c>
       <c r="B88">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D88">
         <v>111</v>
@@ -2758,15 +2758,15 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1646384548855</v>
+        <v>1646979046848</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>1646384551011</v>
+        <v>1646979047273</v>
       </c>
       <c r="B89">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D89">
         <v>111</v>
@@ -2778,15 +2778,15 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1646384551011</v>
+        <v>1646979047273</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>1646384551666</v>
+        <v>1646979047671</v>
       </c>
       <c r="B90">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D90">
         <v>111</v>
@@ -2798,15 +2798,15 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1646384551666</v>
+        <v>1646979047671</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>1646384553702</v>
+        <v>1646979048519</v>
       </c>
       <c r="B91">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D91">
         <v>111</v>
@@ -2818,15 +2818,15 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1646384553702</v>
+        <v>1646979048519</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>1646384556119</v>
+        <v>1646979049021</v>
       </c>
       <c r="B92">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D92">
         <v>111</v>
@@ -2838,15 +2838,15 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1646384556119</v>
+        <v>1646979049021</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>1646384556444</v>
+        <v>1646979049792</v>
       </c>
       <c r="B93">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D93">
         <v>111</v>
@@ -2858,15 +2858,15 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>1646384556444</v>
+        <v>1646979049792</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>1646384558583</v>
+        <v>1646979051723</v>
       </c>
       <c r="B94">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D94">
         <v>111</v>
@@ -2878,15 +2878,15 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>1646384558583</v>
+        <v>1646979051723</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>1646384560716</v>
+        <v>1646979052436</v>
       </c>
       <c r="B95">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D95">
         <v>111</v>
@@ -2898,15 +2898,15 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1646384560716</v>
+        <v>1646979052436</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>1646384562778</v>
+        <v>1646979053826</v>
       </c>
       <c r="B96">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D96">
         <v>111</v>
@@ -2918,15 +2918,15 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>1646384562778</v>
+        <v>1646979053826</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>1646384563329</v>
+        <v>1646979054393</v>
       </c>
       <c r="B97">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D97">
         <v>111</v>
@@ -2938,15 +2938,15 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>1646384563329</v>
+        <v>1646979054393</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>1646384563845</v>
+        <v>1646979054970</v>
       </c>
       <c r="B98">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D98">
         <v>111</v>
@@ -2958,15 +2958,15 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1646384563845</v>
+        <v>1646979054970</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>1646384564306</v>
+        <v>1646979055682</v>
       </c>
       <c r="B99">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D99">
         <v>111</v>
@@ -2978,15 +2978,15 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1646384564306</v>
+        <v>1646979055682</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>1646384565280</v>
+        <v>1646979056066</v>
       </c>
       <c r="B100">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D100">
         <v>111</v>
@@ -2998,15 +2998,15 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1646384565280</v>
+        <v>1646979056066</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>1646384565869</v>
+        <v>1646979056703</v>
       </c>
       <c r="B101">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D101">
         <v>111</v>
@@ -3018,15 +3018,15 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1646384565869</v>
+        <v>1646979056703</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>1646384566234</v>
+        <v>1646979057365</v>
       </c>
       <c r="B102">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D102">
         <v>111</v>
@@ -3038,15 +3038,15 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1646384566234</v>
+        <v>1646979057365</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>1646384566988</v>
+        <v>1646979059230</v>
       </c>
       <c r="B103">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D103">
         <v>111</v>
@@ -3058,15 +3058,15 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1646384566988</v>
+        <v>1646979059230</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>1646384568015</v>
+        <v>1646979059616</v>
       </c>
       <c r="B104">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D104">
         <v>111</v>
@@ -3078,15 +3078,15 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1646384568015</v>
+        <v>1646979059616</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>1646384568720</v>
+        <v>1646979061457</v>
       </c>
       <c r="B105">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D105">
         <v>111</v>
@@ -3098,15 +3098,15 @@
         <v>0</v>
       </c>
       <c r="G105">
-        <v>1646384568720</v>
+        <v>1646979061457</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>1646384569463</v>
+        <v>1646979062227</v>
       </c>
       <c r="B106">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D106">
         <v>111</v>
@@ -3118,15 +3118,15 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1646384569463</v>
+        <v>1646979062227</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>1646384571712</v>
+        <v>1646979062662</v>
       </c>
       <c r="B107">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D107">
         <v>111</v>
@@ -3138,15 +3138,15 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>1646384571712</v>
+        <v>1646979062662</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>1646384573785</v>
+        <v>1646979063716</v>
       </c>
       <c r="B108">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D108">
         <v>111</v>
@@ -3158,15 +3158,15 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>1646384573785</v>
+        <v>1646979063716</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>1646384574214</v>
+        <v>1646979064496</v>
       </c>
       <c r="B109">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D109">
         <v>111</v>
@@ -3178,15 +3178,15 @@
         <v>0</v>
       </c>
       <c r="G109">
-        <v>1646384574214</v>
+        <v>1646979064496</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>1646384575182</v>
+        <v>1646979065156</v>
       </c>
       <c r="B110">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D110">
         <v>111</v>
@@ -3198,15 +3198,15 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>1646384575182</v>
+        <v>1646979065156</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>1646384577406</v>
+        <v>1646979065503</v>
       </c>
       <c r="B111">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D111">
         <v>111</v>
@@ -3218,15 +3218,15 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>1646384577406</v>
+        <v>1646979065503</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>1646384578511</v>
+        <v>1646979066017</v>
       </c>
       <c r="B112">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D112">
         <v>111</v>
@@ -3238,15 +3238,15 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1646384578511</v>
+        <v>1646979066017</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>1646384579021</v>
+        <v>1646979067919</v>
       </c>
       <c r="B113">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D113">
         <v>111</v>
@@ -3258,15 +3258,15 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>1646384579021</v>
+        <v>1646979067919</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>1646384579436</v>
+        <v>1646979068322</v>
       </c>
       <c r="B114">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D114">
         <v>111</v>
@@ -3278,15 +3278,15 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1646384579436</v>
+        <v>1646979068322</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>1646384580373</v>
+        <v>1646979069085</v>
       </c>
       <c r="B115">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D115">
         <v>111</v>
@@ -3298,15 +3298,15 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>1646384580373</v>
+        <v>1646979069085</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>1646384580716</v>
+        <v>1646979069513</v>
       </c>
       <c r="B116">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D116">
         <v>111</v>
@@ -3318,15 +3318,15 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>1646384580716</v>
+        <v>1646979069513</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>1646384582698</v>
+        <v>1646979069966</v>
       </c>
       <c r="B117">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D117">
         <v>111</v>
@@ -3338,15 +3338,15 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <v>1646384582698</v>
+        <v>1646979069966</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>1646384583496</v>
+        <v>1646979070901</v>
       </c>
       <c r="B118">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D118">
         <v>111</v>
@@ -3358,15 +3358,15 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1646384583496</v>
+        <v>1646979070901</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>1646384584244</v>
+        <v>1646979071335</v>
       </c>
       <c r="B119">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D119">
         <v>111</v>
@@ -3378,15 +3378,15 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>1646384584244</v>
+        <v>1646979071335</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>1646384584594</v>
+        <v>1646979071757</v>
       </c>
       <c r="B120">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D120">
         <v>111</v>
@@ -3398,15 +3398,15 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <v>1646384584594</v>
+        <v>1646979071757</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>1646384585309</v>
+        <v>1646979072191</v>
       </c>
       <c r="B121">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D121">
         <v>111</v>
@@ -3418,15 +3418,15 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>1646384585309</v>
+        <v>1646979072191</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>1646384587342</v>
+        <v>1646979074007</v>
       </c>
       <c r="B122">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D122">
         <v>111</v>
@@ -3438,15 +3438,15 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>1646384587342</v>
+        <v>1646979074007</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>1646384589361</v>
+        <v>1646979074412</v>
       </c>
       <c r="B123">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D123">
         <v>111</v>
@@ -3458,15 +3458,15 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>1646384589361</v>
+        <v>1646979074412</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>1646384590003</v>
+        <v>1646979075463</v>
       </c>
       <c r="B124">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D124">
         <v>111</v>
@@ -3478,15 +3478,15 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <v>1646384590003</v>
+        <v>1646979075463</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>1646384590852</v>
+        <v>1646979075879</v>
       </c>
       <c r="B125">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D125">
         <v>111</v>
@@ -3498,15 +3498,15 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>1646384590852</v>
+        <v>1646979075879</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>1646384591727</v>
+        <v>1646979076278</v>
       </c>
       <c r="B126">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D126">
         <v>111</v>
@@ -3518,15 +3518,15 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>1646384591727</v>
+        <v>1646979076278</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>1646384593731</v>
+        <v>1646979077039</v>
       </c>
       <c r="B127">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D127">
         <v>111</v>
@@ -3538,15 +3538,15 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>1646384593731</v>
+        <v>1646979077039</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>1646384594464</v>
+        <v>1646979078053</v>
       </c>
       <c r="B128">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D128">
         <v>111</v>
@@ -3558,15 +3558,15 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>1646384594464</v>
+        <v>1646979078053</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>1646384596478</v>
+        <v>1646979078503</v>
       </c>
       <c r="B129">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D129">
         <v>111</v>
@@ -3578,15 +3578,15 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>1646384596478</v>
+        <v>1646979078503</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>1646384597401</v>
+        <v>1646979079075</v>
       </c>
       <c r="B130">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D130">
         <v>111</v>
@@ -3598,15 +3598,15 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>1646384597401</v>
+        <v>1646979079075</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>1646384597834</v>
+        <v>1646979079756</v>
       </c>
       <c r="B131">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D131">
         <v>111</v>
@@ -3618,15 +3618,15 @@
         <v>0</v>
       </c>
       <c r="G131">
-        <v>1646384597834</v>
+        <v>1646979079756</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>1646384599727</v>
+        <v>1646979080171</v>
       </c>
       <c r="B132">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D132">
         <v>111</v>
@@ -3638,15 +3638,15 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>1646384599727</v>
+        <v>1646979080171</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>1646384600089</v>
+        <v>1646979080953</v>
       </c>
       <c r="B133">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D133">
         <v>111</v>
@@ -3658,15 +3658,15 @@
         <v>0</v>
       </c>
       <c r="G133">
-        <v>1646384600089</v>
+        <v>1646979080953</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>1646384602285</v>
+        <v>1646979082081</v>
       </c>
       <c r="B134">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D134">
         <v>111</v>
@@ -3678,15 +3678,15 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>1646384602285</v>
+        <v>1646979082081</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>1646384602716</v>
+        <v>1646979084041</v>
       </c>
       <c r="B135">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D135">
         <v>111</v>
@@ -3698,15 +3698,15 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>1646384602716</v>
+        <v>1646979084041</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>1646384603178</v>
+        <v>1646979085857</v>
       </c>
       <c r="B136">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D136">
         <v>111</v>
@@ -3718,15 +3718,15 @@
         <v>0</v>
       </c>
       <c r="G136">
-        <v>1646384603178</v>
+        <v>1646979085857</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>1646384603588</v>
+        <v>1646979086505</v>
       </c>
       <c r="B137">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D137">
         <v>111</v>
@@ -3738,15 +3738,15 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>1646384603588</v>
+        <v>1646979086505</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>1646384604031</v>
+        <v>1646979086848</v>
       </c>
       <c r="B138">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D138">
         <v>111</v>
@@ -3758,15 +3758,15 @@
         <v>0</v>
       </c>
       <c r="G138">
-        <v>1646384604031</v>
+        <v>1646979086848</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>1646384604649</v>
+        <v>1646979088635</v>
       </c>
       <c r="B139">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D139">
         <v>111</v>
@@ -3778,15 +3778,15 @@
         <v>0</v>
       </c>
       <c r="G139">
-        <v>1646384604649</v>
+        <v>1646979088635</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>1646384605010</v>
+        <v>1646979088962</v>
       </c>
       <c r="B140">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D140">
         <v>111</v>
@@ -3798,15 +3798,15 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <v>1646384605010</v>
+        <v>1646979088962</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>1646384605720</v>
+        <v>1646979090798</v>
       </c>
       <c r="B141">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D141">
         <v>111</v>
@@ -3818,15 +3818,15 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>1646384605720</v>
+        <v>1646979090798</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>1646384607694</v>
+        <v>1646979092842</v>
       </c>
       <c r="B142">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D142">
         <v>111</v>
@@ -3838,15 +3838,15 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>1646384607694</v>
+        <v>1646979092842</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>1646384608517</v>
+        <v>1646979093270</v>
       </c>
       <c r="B143">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D143">
         <v>111</v>
@@ -3858,15 +3858,15 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <v>1646384608517</v>
+        <v>1646979093270</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>1646384608964</v>
+        <v>1646979095509</v>
       </c>
       <c r="B144">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D144">
         <v>111</v>
@@ -3878,15 +3878,15 @@
         <v>0</v>
       </c>
       <c r="G144">
-        <v>1646384608964</v>
+        <v>1646979095509</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>1646384609548</v>
+        <v>1646979095951</v>
       </c>
       <c r="B145">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D145">
         <v>111</v>
@@ -3898,15 +3898,15 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>1646384609548</v>
+        <v>1646979095951</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>1646384609985</v>
+        <v>1646979096430</v>
       </c>
       <c r="B146">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D146">
         <v>111</v>
@@ -3918,15 +3918,15 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>1646384609985</v>
+        <v>1646979096430</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>1646384612009</v>
+        <v>1646979096817</v>
       </c>
       <c r="B147">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D147">
         <v>111</v>
@@ -3938,15 +3938,15 @@
         <v>0</v>
       </c>
       <c r="G147">
-        <v>1646384612009</v>
+        <v>1646979096817</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>1646384612727</v>
+        <v>1646979097216</v>
       </c>
       <c r="B148">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D148">
         <v>111</v>
@@ -3958,15 +3958,15 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>1646384612727</v>
+        <v>1646979097216</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>1646384613528</v>
+        <v>1646979097584</v>
       </c>
       <c r="B149">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D149">
         <v>111</v>
@@ -3978,15 +3978,15 @@
         <v>0</v>
       </c>
       <c r="G149">
-        <v>1646384613528</v>
+        <v>1646979097584</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>1646384613871</v>
+        <v>1646979099448</v>
       </c>
       <c r="B150">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D150">
         <v>111</v>
@@ -3998,15 +3998,15 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>1646384613871</v>
+        <v>1646979099448</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>1646384614328</v>
+        <v>1646979099887</v>
       </c>
       <c r="B151">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D151">
         <v>111</v>
@@ -4018,15 +4018,15 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>1646384614328</v>
+        <v>1646979099887</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>1646384616371</v>
+        <v>1646979100450</v>
       </c>
       <c r="B152">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D152">
         <v>111</v>
@@ -4038,15 +4038,15 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>1646384616371</v>
+        <v>1646979100450</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>1646384616918</v>
+        <v>1646979101160</v>
       </c>
       <c r="B153">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D153">
         <v>111</v>
@@ -4058,15 +4058,15 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>1646384616918</v>
+        <v>1646979101160</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>1646384617621</v>
+        <v>1646979101908</v>
       </c>
       <c r="B154">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D154">
         <v>111</v>
@@ -4078,15 +4078,15 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>1646384617621</v>
+        <v>1646979101908</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>1646384618176</v>
+        <v>1646979102534</v>
       </c>
       <c r="B155">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D155">
         <v>111</v>
@@ -4098,15 +4098,15 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>1646384618176</v>
+        <v>1646979102534</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>1646384618893</v>
+        <v>1646979102976</v>
       </c>
       <c r="B156">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D156">
         <v>111</v>
@@ -4118,15 +4118,15 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>1646384618893</v>
+        <v>1646979102976</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>1646384619591</v>
+        <v>1646979103528</v>
       </c>
       <c r="B157">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D157">
         <v>111</v>
@@ -4138,15 +4138,15 @@
         <v>0</v>
       </c>
       <c r="G157">
-        <v>1646384619591</v>
+        <v>1646979103528</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>1646384621596</v>
+        <v>1646979104177</v>
       </c>
       <c r="B158">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D158">
         <v>111</v>
@@ -4158,15 +4158,15 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <v>1646384621596</v>
+        <v>1646979104177</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>1646384624021</v>
+        <v>1646979104818</v>
       </c>
       <c r="B159">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D159">
         <v>111</v>
@@ -4178,15 +4178,15 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>1646384624021</v>
+        <v>1646979104818</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>1646384624382</v>
+        <v>1646979105303</v>
       </c>
       <c r="B160">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D160">
         <v>111</v>
@@ -4198,15 +4198,15 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>1646384624382</v>
+        <v>1646979105303</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>1646384624968</v>
+        <v>1646979105686</v>
       </c>
       <c r="B161">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D161">
         <v>111</v>
@@ -4218,15 +4218,15 @@
         <v>0</v>
       </c>
       <c r="G161">
-        <v>1646384624968</v>
+        <v>1646979105686</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>1646384625481</v>
+        <v>1646979107840</v>
       </c>
       <c r="B162">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D162">
         <v>111</v>
@@ -4238,15 +4238,15 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>1646384625481</v>
+        <v>1646979107840</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>1646384625960</v>
+        <v>1646979108188</v>
       </c>
       <c r="B163">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D163">
         <v>111</v>
@@ -4258,15 +4258,15 @@
         <v>0</v>
       </c>
       <c r="G163">
-        <v>1646384625960</v>
+        <v>1646979108188</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>1646384626408</v>
+        <v>1646979108741</v>
       </c>
       <c r="B164">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D164">
         <v>111</v>
@@ -4278,15 +4278,15 @@
         <v>0</v>
       </c>
       <c r="G164">
-        <v>1646384626408</v>
+        <v>1646979108741</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>1646384628479</v>
+        <v>1646979109306</v>
       </c>
       <c r="B165">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D165">
         <v>111</v>
@@ -4298,15 +4298,15 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <v>1646384628479</v>
+        <v>1646979109306</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>1646384629266</v>
+        <v>1646979111637</v>
       </c>
       <c r="B166">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D166">
         <v>111</v>
@@ -4318,15 +4318,15 @@
         <v>0</v>
       </c>
       <c r="G166">
-        <v>1646384629266</v>
+        <v>1646979111637</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>1646384630047</v>
+        <v>1646979112023</v>
       </c>
       <c r="B167">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D167">
         <v>111</v>
@@ -4338,15 +4338,15 @@
         <v>0</v>
       </c>
       <c r="G167">
-        <v>1646384630047</v>
+        <v>1646979112023</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>1646384630500</v>
+        <v>1646979112446</v>
       </c>
       <c r="B168">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D168">
         <v>111</v>
@@ -4358,15 +4358,15 @@
         <v>0</v>
       </c>
       <c r="G168">
-        <v>1646384630500</v>
+        <v>1646979112446</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>1646384630887</v>
+        <v>1646979112892</v>
       </c>
       <c r="B169">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D169">
         <v>111</v>
@@ -4378,15 +4378,15 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>1646384630887</v>
+        <v>1646979112892</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>1646384631562</v>
+        <v>1646979114768</v>
       </c>
       <c r="B170">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D170">
         <v>111</v>
@@ -4398,15 +4398,15 @@
         <v>0</v>
       </c>
       <c r="G170">
-        <v>1646384631562</v>
+        <v>1646979114768</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>1646384632497</v>
+        <v>1646979115437</v>
       </c>
       <c r="B171">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D171">
         <v>111</v>
@@ -4418,15 +4418,15 @@
         <v>0</v>
       </c>
       <c r="G171">
-        <v>1646384632497</v>
+        <v>1646979115437</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>1646384633039</v>
+        <v>1646979116047</v>
       </c>
       <c r="B172">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D172">
         <v>111</v>
@@ -4438,15 +4438,15 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>1646384633039</v>
+        <v>1646979116047</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>1646384633571</v>
+        <v>1646979116478</v>
       </c>
       <c r="B173">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D173">
         <v>111</v>
@@ -4458,15 +4458,15 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>1646384633571</v>
+        <v>1646979116478</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>1646384634489</v>
+        <v>1646979117055</v>
       </c>
       <c r="B174">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D174">
         <v>111</v>
@@ -4478,15 +4478,15 @@
         <v>0</v>
       </c>
       <c r="G174">
-        <v>1646384634489</v>
+        <v>1646979117055</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>1646384635372</v>
+        <v>1646979117521</v>
       </c>
       <c r="B175">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D175">
         <v>111</v>
@@ -4498,15 +4498,15 @@
         <v>0</v>
       </c>
       <c r="G175">
-        <v>1646384635372</v>
+        <v>1646979117521</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>1646384636118</v>
+        <v>1646979118348</v>
       </c>
       <c r="B176">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D176">
         <v>111</v>
@@ -4518,15 +4518,15 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>1646384636118</v>
+        <v>1646979118348</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>1646384637101</v>
+        <v>1646979119022</v>
       </c>
       <c r="B177">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D177">
         <v>111</v>
@@ -4538,15 +4538,15 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>1646384637101</v>
+        <v>1646979119022</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>1646384637634</v>
+        <v>1646979121014</v>
       </c>
       <c r="B178">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D178">
         <v>111</v>
@@ -4558,15 +4558,15 @@
         <v>0</v>
       </c>
       <c r="G178">
-        <v>1646384637634</v>
+        <v>1646979121014</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>1646384638506</v>
+        <v>1646979121337</v>
       </c>
       <c r="B179">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D179">
         <v>111</v>
@@ -4578,15 +4578,15 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>1646384638506</v>
+        <v>1646979121337</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>1646384639156</v>
+        <v>1646979122023</v>
       </c>
       <c r="B180">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D180">
         <v>111</v>
@@ -4598,15 +4598,15 @@
         <v>0</v>
       </c>
       <c r="G180">
-        <v>1646384639156</v>
+        <v>1646979122023</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>1646384639598</v>
+        <v>1646979122450</v>
       </c>
       <c r="B181">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D181">
         <v>111</v>
@@ -4618,15 +4618,15 @@
         <v>0</v>
       </c>
       <c r="G181">
-        <v>1646384639598</v>
+        <v>1646979122450</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>1646384640060</v>
+        <v>1646979123486</v>
       </c>
       <c r="B182">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D182">
         <v>111</v>
@@ -4638,15 +4638,15 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>1646384640060</v>
+        <v>1646979123486</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>1646384640640</v>
+        <v>1646979125718</v>
       </c>
       <c r="B183">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D183">
         <v>111</v>
@@ -4658,15 +4658,15 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>1646384640640</v>
+        <v>1646979125718</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>1646384641327</v>
+        <v>1646979126078</v>
       </c>
       <c r="B184">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D184">
         <v>111</v>
@@ -4678,15 +4678,15 @@
         <v>0</v>
       </c>
       <c r="G184">
-        <v>1646384641327</v>
+        <v>1646979126078</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>1646384641972</v>
+        <v>1646979126989</v>
       </c>
       <c r="B185">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D185">
         <v>111</v>
@@ -4698,15 +4698,15 @@
         <v>0</v>
       </c>
       <c r="G185">
-        <v>1646384641972</v>
+        <v>1646979126989</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>1646384644037</v>
+        <v>1646979127311</v>
       </c>
       <c r="B186">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D186">
         <v>111</v>
@@ -4718,15 +4718,15 @@
         <v>0</v>
       </c>
       <c r="G186">
-        <v>1646384644037</v>
+        <v>1646979127311</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>1646384644683</v>
+        <v>1646979129343</v>
       </c>
       <c r="B187">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D187">
         <v>111</v>
@@ -4738,15 +4738,15 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>1646384644683</v>
+        <v>1646979129343</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>1646384645609</v>
+        <v>1646979131219</v>
       </c>
       <c r="B188">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D188">
         <v>111</v>
@@ -4758,15 +4758,15 @@
         <v>0</v>
       </c>
       <c r="G188">
-        <v>1646384645609</v>
+        <v>1646979131219</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>1646384646030</v>
+        <v>1646979133309</v>
       </c>
       <c r="B189">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D189">
         <v>111</v>
@@ -4778,15 +4778,15 @@
         <v>0</v>
       </c>
       <c r="G189">
-        <v>1646384646030</v>
+        <v>1646979133309</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>1646384648078</v>
+        <v>1646979133859</v>
       </c>
       <c r="B190">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D190">
         <v>111</v>
@@ -4798,15 +4798,15 @@
         <v>0</v>
       </c>
       <c r="G190">
-        <v>1646384648078</v>
+        <v>1646979133859</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>1646384648858</v>
+        <v>1646979134658</v>
       </c>
       <c r="B191">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D191">
         <v>111</v>
@@ -4818,15 +4818,15 @@
         <v>0</v>
       </c>
       <c r="G191">
-        <v>1646384648858</v>
+        <v>1646979134658</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>1646384651053</v>
+        <v>1646979135479</v>
       </c>
       <c r="B192">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D192">
         <v>111</v>
@@ -4838,15 +4838,15 @@
         <v>0</v>
       </c>
       <c r="G192">
-        <v>1646384651053</v>
+        <v>1646979135479</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>1646384652189</v>
+        <v>1646979136167</v>
       </c>
       <c r="B193">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D193">
         <v>111</v>
@@ -4858,15 +4858,15 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>1646384652189</v>
+        <v>1646979136167</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>1646384654199</v>
+        <v>1646979136978</v>
       </c>
       <c r="B194">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D194">
         <v>111</v>
@@ -4878,15 +4878,15 @@
         <v>0</v>
       </c>
       <c r="G194">
-        <v>1646384654199</v>
+        <v>1646979136978</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>1646384654829</v>
+        <v>1646979137838</v>
       </c>
       <c r="B195">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D195">
         <v>111</v>
@@ -4898,15 +4898,15 @@
         <v>0</v>
       </c>
       <c r="G195">
-        <v>1646384654829</v>
+        <v>1646979137838</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>1646384657060</v>
+        <v>1646979138184</v>
       </c>
       <c r="B196">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D196">
         <v>111</v>
@@ -4918,15 +4918,15 @@
         <v>0</v>
       </c>
       <c r="G196">
-        <v>1646384657060</v>
+        <v>1646979138184</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>1646384659035</v>
+        <v>1646979138528</v>
       </c>
       <c r="B197">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D197">
         <v>111</v>
@@ -4938,15 +4938,15 @@
         <v>0</v>
       </c>
       <c r="G197">
-        <v>1646384659035</v>
+        <v>1646979138528</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>1646384660308</v>
+        <v>1646979139168</v>
       </c>
       <c r="B198">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D198">
         <v>111</v>
@@ -4958,15 +4958,15 @@
         <v>0</v>
       </c>
       <c r="G198">
-        <v>1646384660308</v>
+        <v>1646979139168</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>1646384660682</v>
+        <v>1646979140055</v>
       </c>
       <c r="B199">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D199">
         <v>111</v>
@@ -4978,15 +4978,15 @@
         <v>0</v>
       </c>
       <c r="G199">
-        <v>1646384660682</v>
+        <v>1646979140055</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>1646389199235</v>
+        <v>1646979436753</v>
       </c>
       <c r="B200">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D200">
         <v>111</v>
@@ -4998,15 +4998,15 @@
         <v>0</v>
       </c>
       <c r="G200">
-        <v>1646389199235</v>
+        <v>1646979436753</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>1646389199402</v>
+        <v>1646979436917</v>
       </c>
       <c r="B201">
-        <v>10012</v>
+        <v>10015</v>
       </c>
       <c r="D201">
         <v>111</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G201">
-        <v>1646389199402</v>
+        <v>1646979436917</v>
       </c>
     </row>
   </sheetData>
